--- a/pishnyij.xlsx
+++ b/pishnyij.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ravota\telegrambot-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ravota\telegrambot-master\checking_comments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7185"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7185"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="55">
   <si>
     <t>отзывы с фейсбука</t>
   </si>
@@ -35,41 +35,167 @@
     <t>отзывы с других сервисов</t>
   </si>
   <si>
-    <t>старые отзывы</t>
-  </si>
-  <si>
-    <t>вчерашние отзывы</t>
-  </si>
-  <si>
     <t>все</t>
   </si>
   <si>
-    <t>фейсбукпышный</t>
-  </si>
-  <si>
-    <t>ютуб</t>
-  </si>
-  <si>
-    <t>всесервисыпышный</t>
-  </si>
-  <si>
-    <t>старыепышный</t>
-  </si>
-  <si>
-    <t>вчерашниепышный</t>
-  </si>
-  <si>
-    <t>всечвышный</t>
-  </si>
-  <si>
-    <t>ютубпышный</t>
+    <t>https://www.youtube.com/watch?v=FDmgktMrRZE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t5AGdtx9yD8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-6O_kqMmKhw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0cK6v_R_SSY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y7QYogJPIKY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7ejD0ITMwjo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eX5EQgxbnv0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RQbMiXYVniQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bQNa3pYVY-c</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HAiuR_o13PI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=arKx_66MBKc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Bx2z5FKCNNA</t>
+  </si>
+  <si>
+    <t>https://strana.ua/news/262994-v-zarazhennom-koronavirusom-obshchezhitii-vishnevoho-pribavilos-12-zabolevshikh.html</t>
+  </si>
+  <si>
+    <t>https://kp.ua/covid/665793-koronavyrusom-v-obschezhytyy-vyshnevoho-zabolely-pochty-polsotny-chelovek</t>
+  </si>
+  <si>
+    <t>https://ukranews.com/news/698077-v-obshhezhitii-v-vishnevom-vozroslo-kolichestvo-zarazivshihsya-koronavirusom</t>
+  </si>
+  <si>
+    <t>https://z-obereg.ru/znachenie-imen/25-noyabrya-imeniny.html</t>
+  </si>
+  <si>
+    <t>https://ukraina.ru/exclusive/20190701/1024088707.html</t>
+  </si>
+  <si>
+    <t>https://ru.korupciya.com/rebenok-edva-ne-stal-kalekoy-ot-napadeniya-agressivnyih-sobak-kotoryih-kormyat-krovyu</t>
+  </si>
+  <si>
+    <t>https://reporter-ua.com/2016/11/03/304934_v-kievskoy-oblasti-zafiksirovan-vsplesk-agressii-bezdomnyh-sobak-za-mesyac-pyatero</t>
+  </si>
+  <si>
+    <t>https://riavrn.ru/districts/ostrogozhsky/ostrogozhtsy-vyberut-gubernatora-i-deputata-v-gorodskoy-sovet</t>
+  </si>
+  <si>
+    <t>https://belgorod.er.ru/news/2014/4/11/zasedanie-molodyozhnoj-organizacii-gorodskogo-poseleniya-posyolok-volokonovka</t>
+  </si>
+  <si>
+    <t>https://www.dsnews.ua/politics/timoshenko_-jacenyuk-i-gricenko-vozglavili-spisok-obedinennoi-oppozicii</t>
+  </si>
+  <si>
+    <t>https://apologetika.ru/19д-Новости+культов/2011-07-27/2351-+Генпрокуратура+РФ+открывает+многомиллионное+дело+на+Сандея+Аделаджу+</t>
+  </si>
+  <si>
+    <t>http://www.adelaja.com/ritrit-zhizn-do-i-posle-2.html</t>
+  </si>
+  <si>
+    <t>http://tp0322.in.ua/temy/item/11832-1477664531</t>
+  </si>
+  <si>
+    <t>http://www.godembassy.org/main/vliyanie-cerkvi/item/1970-byit-mudryim-eto-umet-predvidet-buduschee.html</t>
+  </si>
+  <si>
+    <t>http://www.godembassy.org/main/vliyanie-cerkvi/item/1564-люби-бога-в-людях.html</t>
+  </si>
+  <si>
+    <t>http://www.godembassy.org/main/centralnaja-cerkov/21-ja-godovshhina-cerkvi/item/4226-glavnoe-imet-slovo-ot-boga-21-ya-godovschina-den-1.html</t>
+  </si>
+  <si>
+    <t>http://www.godembassy.org/main/svidetelstva/item/4515-anatoliy-chumarnyiy-u-menya-ogromnoe-i-strastnoe-zhelanie-ugodit-svoemu-tvortsu.html</t>
+  </si>
+  <si>
+    <t>http://prawda.org.ua/2373</t>
+  </si>
+  <si>
+    <t>http://prawda.org.ua/2497</t>
+  </si>
+  <si>
+    <t>http://globalist.org.ua/novosti/society-news/adeladzha-khochet-na-svobodu-no77265.html</t>
+  </si>
+  <si>
+    <t>http://www.godembassy.org/main/vliyanie-cerkvi/item/1472-непрестанная-молитва-это-отношения-человека-с-богом.html</t>
+  </si>
+  <si>
+    <t>http://vlasti.net/news/182258</t>
+  </si>
+  <si>
+    <t>http://www.godembassy.org/main/vliyanie-cerkvi/21-ja-godovshhina-cerkvi/item/4226-glavnoe-imet-slovo-ot-boga-21-ya-godovschina-den-1.html</t>
+  </si>
+  <si>
+    <t>http://vlasti.net/news/178268</t>
+  </si>
+  <si>
+    <t>http://globalist.org.ua/novosti/geopolitical-news/sandejj-adeladzha-sud-no75056.html</t>
+  </si>
+  <si>
+    <t>http://www.godembassy.org/main/socialnaja-rabota/item/4753-uvlekatelnyie-i-pouchitelnyie-vyihodnyie-s-molodezhnyim-tsentrom-freedom.html</t>
+  </si>
+  <si>
+    <t>http://www.godembassy.org/main/vliyanie-cerkvi/item/2732-lyubov-naivyisshaya-forma-pochteniya.html</t>
+  </si>
+  <si>
+    <t>http://www.godembassy.org/main/vliyanie-cerkvi/20-ja-godovshhina-cerkvi/item/3901-chelovek-tsarstva-bozhego-2014.html</t>
+  </si>
+  <si>
+    <t>http://www.godembassy.org/main/gordost-posolstva-bozhego/item/3192-sergey-pyishnyiy-nagrazhden-pochetnoy-gramotoy-kabineta-ministrov-ukrainyi.html</t>
+  </si>
+  <si>
+    <t>http://www.godembassy.org/main/vliyanie-cerkvi/item/2287-kak-sohranit-svoe-zdorove?.html</t>
+  </si>
+  <si>
+    <t>http://irpin.in.ua/irpenskije-deputaty-obygrali-vishnjevoe</t>
+  </si>
+  <si>
+    <t>http://www.godembassy.org/main/vliyanie-cerkvi/item/299-владивосток-посетил-член-апостольского-совета-пастор-сергей-пышный.html</t>
+  </si>
+  <si>
+    <t>http://www.godembassy.org/main/novovvedenija/item/3411-poseschaya-ritrityi-mozhno-uspevat-delat-namnogo-bolshe.html</t>
+  </si>
+  <si>
+    <t>http://www.godembassy.org/main/vliyanie-cerkvi/17-godovshina-cerkvi/item/425-vliyanie-veruyuschego-cheloveka-na-obschestvo.html</t>
+  </si>
+  <si>
+    <t>http://www.godembassy.org/main/vliyanie-cerkvi/item/4753-uvlekatelnyie-i-pouchitelnyie-vyihodnyie-s-molodezhnyim-tsentrom-freedom.html</t>
+  </si>
+  <si>
+    <t>http://www.godembassy.org/main/centralnaja-cerkov/17-godovshina-cerkvi/item/425-влияние-верующего-человека-на-общество.html</t>
+  </si>
+  <si>
+    <t>нет упоминаний</t>
+  </si>
+  <si>
+    <t>вчера</t>
+  </si>
+  <si>
+    <t>сегодня</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,27 +216,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -163,11 +278,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -205,8 +395,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,16 +698,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="39.75" thickBot="1">
+    <row r="1" spans="1:11" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,13 +718,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -524,24 +732,24 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="39.75" thickBot="1">
+    <row r="2" spans="1:11" ht="205.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>4</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="1"/>
@@ -549,24 +757,18 @@
       <c r="J2" s="6"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="39.75" thickBot="1">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
+    <row r="3" spans="1:11" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="1"/>
@@ -574,22 +776,18 @@
       <c r="J3" s="6"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="39.75" thickBot="1">
+    <row r="4" spans="1:11" ht="192.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
+      <c r="B4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="1"/>
@@ -597,22 +795,18 @@
       <c r="J4" s="6"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="39.75" thickBot="1">
+    <row r="5" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
+      <c r="B5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="1"/>
@@ -620,22 +814,18 @@
       <c r="J5" s="6"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="39.75" thickBot="1">
+    <row r="6" spans="1:11" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
+      <c r="C6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="1"/>
@@ -643,22 +833,18 @@
       <c r="J6" s="6"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="39.75" thickBot="1">
+    <row r="7" spans="1:11" ht="192.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="B7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
+      <c r="C7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="18" t="s">
+        <v>9</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="1"/>
@@ -666,20 +852,18 @@
       <c r="J7" s="6"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="39.75" thickBot="1">
+    <row r="8" spans="1:11" ht="218.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="B8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
+      <c r="C8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="1"/>
@@ -687,17 +871,17 @@
       <c r="J8" s="6"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="39.75" thickBot="1">
+    <row r="9" spans="1:11" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
+      <c r="B9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="18" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="5"/>
@@ -706,18 +890,18 @@
       <c r="J9" s="6"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="39.75" thickBot="1">
+    <row r="10" spans="1:11" ht="218.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
+      <c r="B10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>11</v>
+      <c r="E10" s="1"/>
+      <c r="F10" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="1"/>
@@ -725,514 +909,652 @@
       <c r="J10" s="6"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1">
+    <row r="11" spans="1:11" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="18" t="s">
+        <v>20</v>
+      </c>
       <c r="G11" s="5"/>
       <c r="H11" s="1"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1">
+    <row r="12" spans="1:11" ht="218.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="18" t="s">
+        <v>14</v>
+      </c>
       <c r="G12" s="5"/>
       <c r="H12" s="1"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1">
+    <row r="13" spans="1:11" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="7"/>
+      <c r="B13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="18" t="s">
+        <v>15</v>
+      </c>
       <c r="G13" s="5"/>
       <c r="H13" s="1"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1">
+    <row r="14" spans="1:11" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="7"/>
+      <c r="C14" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="D14" s="10"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="18" t="s">
+        <v>21</v>
+      </c>
       <c r="G14" s="5"/>
       <c r="H14" s="1"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1">
+    <row r="15" spans="1:11" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="11"/>
+      <c r="C15" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="18" t="s">
+        <v>22</v>
+      </c>
       <c r="G15" s="5"/>
       <c r="H15" s="1"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1">
+    <row r="16" spans="1:11" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="7"/>
+      <c r="C16" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="F16" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="G16" s="5"/>
       <c r="H16" s="1"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1">
+    <row r="17" spans="1:11" ht="243.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="12"/>
+      <c r="C17" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="F17" s="18" t="s">
+        <v>8</v>
+      </c>
       <c r="G17" s="5"/>
       <c r="H17" s="1"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1">
+    <row r="18" spans="1:11" ht="231" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="11"/>
+      <c r="C18" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="G18" s="5"/>
       <c r="H18" s="1"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1">
+    <row r="19" spans="1:11" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
-      <c r="C19" s="12"/>
+      <c r="C19" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="F19" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="G19" s="5"/>
       <c r="H19" s="1"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1">
+    <row r="20" spans="1:11" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="7"/>
+      <c r="C20" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="F20" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="G20" s="5"/>
       <c r="H20" s="1"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1">
+    <row r="21" spans="1:11" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="12"/>
+      <c r="C21" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="F21" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="G21" s="5"/>
       <c r="H21" s="1"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1">
+    <row r="22" spans="1:11" ht="218.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="7"/>
+      <c r="C22" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="F22" s="18" t="s">
+        <v>5</v>
+      </c>
       <c r="G22" s="5"/>
       <c r="H22" s="1"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1">
+    <row r="23" spans="1:11" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="9"/>
-      <c r="C23" s="7"/>
+      <c r="C23" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="F23" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="G23" s="5"/>
       <c r="H23" s="1"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1">
+    <row r="24" spans="1:11" ht="243.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="7"/>
+      <c r="C24" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="F24" s="19" t="s">
+        <v>26</v>
+      </c>
       <c r="G24" s="5"/>
       <c r="H24" s="1"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1">
+    <row r="25" spans="1:11" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="9"/>
-      <c r="C25" s="7"/>
+      <c r="C25" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="F25" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="G25" s="5"/>
       <c r="H25" s="1"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1">
+    <row r="26" spans="1:11" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="9"/>
-      <c r="C26" s="7"/>
+      <c r="C26" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="F26" s="18" t="s">
+        <v>28</v>
+      </c>
       <c r="G26" s="5"/>
       <c r="H26" s="1"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1">
+    <row r="27" spans="1:11" ht="231" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="9"/>
-      <c r="C27" s="7"/>
+      <c r="C27" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="F27" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="G27" s="5"/>
       <c r="H27" s="1"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1">
+    <row r="28" spans="1:11" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="9"/>
-      <c r="C28" s="7"/>
+      <c r="C28" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="1"/>
+      <c r="F28" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="G28" s="5"/>
       <c r="H28" s="1"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1">
+    <row r="29" spans="1:11" ht="192.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="1"/>
+      <c r="C29" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="D29" s="10"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="1"/>
+      <c r="F29" s="18" t="s">
+        <v>31</v>
+      </c>
       <c r="G29" s="5"/>
       <c r="H29" s="1"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1">
+    <row r="30" spans="1:11" ht="243.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="11"/>
+      <c r="C30" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="F30" s="18" t="s">
+        <v>32</v>
+      </c>
       <c r="G30" s="5"/>
       <c r="H30" s="1"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1">
+    <row r="31" spans="1:11" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
-      <c r="C31" s="12"/>
+      <c r="C31" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="F31" s="18" t="s">
+        <v>33</v>
+      </c>
       <c r="G31" s="5"/>
       <c r="H31" s="1"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1">
+    <row r="32" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="7"/>
+      <c r="C32" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="F32" s="18" t="s">
+        <v>34</v>
+      </c>
       <c r="G32" s="5"/>
       <c r="H32" s="1"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1">
+    <row r="33" spans="1:11" ht="231" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="11"/>
+      <c r="C33" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="F33" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="G33" s="5"/>
       <c r="H33" s="1"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="15.75" thickBot="1">
+    <row r="34" spans="1:11" ht="192.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
-      <c r="C34" s="12"/>
+      <c r="C34" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="F34" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="G34" s="5"/>
       <c r="H34" s="1"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="15.75" thickBot="1">
+    <row r="35" spans="1:11" ht="218.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="2"/>
+      <c r="C35" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="F35" s="18" t="s">
+        <v>37</v>
+      </c>
       <c r="G35" s="5"/>
       <c r="H35" s="1"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="15.75" thickBot="1">
+    <row r="36" spans="1:11" ht="231" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="2"/>
+      <c r="C36" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="F36" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="G36" s="5"/>
       <c r="H36" s="1"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="15.75" thickBot="1">
+    <row r="37" spans="1:11" ht="218.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="2"/>
+      <c r="C37" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="F37" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="G37" s="5"/>
       <c r="H37" s="1"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1">
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="F38" s="18" t="s">
+        <v>40</v>
+      </c>
       <c r="G38" s="5"/>
       <c r="H38" s="1"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1">
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="3"/>
       <c r="C39" s="2"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="F39" s="18" t="s">
+        <v>41</v>
+      </c>
       <c r="G39" s="5"/>
       <c r="H39" s="1"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1">
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="F40" s="18" t="s">
+        <v>42</v>
+      </c>
       <c r="G40" s="5"/>
       <c r="H40" s="1"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="15.75" thickBot="1">
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="3"/>
       <c r="C41" s="11"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="F41" s="18" t="s">
+        <v>43</v>
+      </c>
       <c r="G41" s="5"/>
       <c r="H41" s="1"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="15.75" thickBot="1">
+    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="12"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="F42" s="18" t="s">
+        <v>44</v>
+      </c>
       <c r="G42" s="5"/>
       <c r="H42" s="1"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="15.75" thickBot="1">
+    <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="3"/>
       <c r="C43" s="2"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="F43" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="G43" s="5"/>
       <c r="H43" s="1"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="15.75" thickBot="1">
+    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="1"/>
       <c r="C44" s="11"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="F44" s="18" t="s">
+        <v>46</v>
+      </c>
       <c r="G44" s="5"/>
       <c r="H44" s="1"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="15.75" thickBot="1">
+    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="12"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="F45" s="19" t="s">
+        <v>47</v>
+      </c>
       <c r="G45" s="5"/>
       <c r="H45" s="1"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="15.75" thickBot="1">
+    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="3"/>
       <c r="C46" s="2"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+      <c r="F46" s="18" t="s">
+        <v>48</v>
+      </c>
       <c r="G46" s="5"/>
       <c r="H46" s="1"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" thickBot="1">
+    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="3"/>
       <c r="C47" s="2"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+      <c r="F47" s="18" t="s">
+        <v>49</v>
+      </c>
       <c r="G47" s="5"/>
       <c r="H47" s="1"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75" thickBot="1">
+    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="1"/>
       <c r="C48" s="2"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+      <c r="F48" s="18" t="s">
+        <v>50</v>
+      </c>
       <c r="G48" s="5"/>
       <c r="H48" s="1"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" ht="15.75" thickBot="1">
+    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="1"/>
       <c r="C49" s="11"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="F49" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="G49" s="5"/>
       <c r="H49" s="1"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="15.75" thickBot="1">
+    <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="12"/>
@@ -1245,7 +1567,7 @@
       <c r="J50" s="6"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" ht="15.75" thickBot="1">
+    <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="12"/>
@@ -1258,7 +1580,7 @@
       <c r="J51" s="6"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" ht="15.75" thickBot="1">
+    <row r="52" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="12"/>
@@ -1271,7 +1593,7 @@
       <c r="J52" s="6"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" ht="15.75" thickBot="1">
+    <row r="53" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="12"/>
@@ -1284,7 +1606,7 @@
       <c r="J53" s="6"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" ht="15.75" thickBot="1">
+    <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="12"/>
@@ -1297,7 +1619,7 @@
       <c r="J54" s="6"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" ht="15.75" thickBot="1">
+    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
       <c r="B55" s="1"/>
       <c r="C55" s="11"/>
@@ -1310,7 +1632,7 @@
       <c r="J55" s="6"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" ht="15.75" thickBot="1">
+    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="9"/>
       <c r="C56" s="12"/>
@@ -1323,7 +1645,7 @@
       <c r="J56" s="6"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" ht="15.75" thickBot="1">
+    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="12"/>
@@ -1336,7 +1658,7 @@
       <c r="J57" s="6"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" ht="15.75" thickBot="1">
+    <row r="58" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="12"/>
@@ -1349,7 +1671,7 @@
       <c r="J58" s="6"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" ht="15.75" thickBot="1">
+    <row r="59" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="12"/>
@@ -1362,7 +1684,7 @@
       <c r="J59" s="6"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" ht="15.75" thickBot="1">
+    <row r="60" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="12"/>
@@ -1375,7 +1697,7 @@
       <c r="J60" s="6"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" ht="15.75" thickBot="1">
+    <row r="61" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="12"/>

--- a/pishnyij.xlsx
+++ b/pishnyij.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7185"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -698,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50:F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,9 +736,6 @@
       <c r="A2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" s="13" t="s">
         <v>16</v>
       </c>
@@ -759,9 +756,6 @@
     </row>
     <row r="3" spans="1:11" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="14" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" s="14" t="s">
         <v>17</v>
       </c>
@@ -778,9 +772,6 @@
     </row>
     <row r="4" spans="1:11" ht="192.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="14" t="s">
-        <v>6</v>
-      </c>
       <c r="C4" s="14" t="s">
         <v>18</v>
       </c>
@@ -797,9 +788,6 @@
     </row>
     <row r="5" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="14" t="s">
-        <v>7</v>
-      </c>
       <c r="C5" s="14" t="s">
         <v>19</v>
       </c>
@@ -816,9 +804,6 @@
     </row>
     <row r="6" spans="1:11" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="14" t="s">
-        <v>8</v>
-      </c>
       <c r="C6" s="14" t="s">
         <v>20</v>
       </c>
@@ -835,9 +820,6 @@
     </row>
     <row r="7" spans="1:11" ht="192.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="14" t="s">
-        <v>9</v>
-      </c>
       <c r="C7" s="14" t="s">
         <v>21</v>
       </c>
@@ -854,9 +836,6 @@
     </row>
     <row r="8" spans="1:11" ht="218.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="14" t="s">
-        <v>10</v>
-      </c>
       <c r="C8" s="14" t="s">
         <v>22</v>
       </c>
@@ -873,9 +852,6 @@
     </row>
     <row r="9" spans="1:11" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="14" t="s">
-        <v>11</v>
-      </c>
       <c r="C9" s="14" t="s">
         <v>23</v>
       </c>
@@ -892,9 +868,6 @@
     </row>
     <row r="10" spans="1:11" ht="218.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="14" t="s">
-        <v>12</v>
-      </c>
       <c r="C10" s="14" t="s">
         <v>24</v>
       </c>
@@ -911,9 +884,6 @@
     </row>
     <row r="11" spans="1:11" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="14" t="s">
-        <v>13</v>
-      </c>
       <c r="C11" s="14" t="s">
         <v>25</v>
       </c>
@@ -930,9 +900,6 @@
     </row>
     <row r="12" spans="1:11" ht="218.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="14" t="s">
-        <v>14</v>
-      </c>
       <c r="C12" s="16" t="s">
         <v>26</v>
       </c>
@@ -949,9 +916,6 @@
     </row>
     <row r="13" spans="1:11" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="15" t="s">
-        <v>15</v>
-      </c>
       <c r="C13" s="14" t="s">
         <v>27</v>
       </c>
@@ -1554,156 +1518,180 @@
       <c r="J49" s="6"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="12"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
+      <c r="F50" s="13" t="s">
+        <v>4</v>
+      </c>
       <c r="G50" s="5"/>
       <c r="H50" s="1"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="12"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
+      <c r="F51" s="14" t="s">
+        <v>5</v>
+      </c>
       <c r="G51" s="5"/>
       <c r="H51" s="1"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="12"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+      <c r="F52" s="14" t="s">
+        <v>6</v>
+      </c>
       <c r="G52" s="5"/>
       <c r="H52" s="1"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="12"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
+      <c r="F53" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="G53" s="5"/>
       <c r="H53" s="1"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="12"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+      <c r="F54" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="G54" s="5"/>
       <c r="H54" s="1"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
       <c r="B55" s="1"/>
       <c r="C55" s="11"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
+      <c r="F55" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="G55" s="5"/>
       <c r="H55" s="1"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="9"/>
       <c r="C56" s="12"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
+      <c r="F56" s="14" t="s">
+        <v>10</v>
+      </c>
       <c r="G56" s="5"/>
       <c r="H56" s="1"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="12"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
+      <c r="F57" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="G57" s="5"/>
       <c r="H57" s="1"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="12"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
+      <c r="F58" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="G58" s="5"/>
       <c r="H58" s="1"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="12"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
+      <c r="F59" s="14" t="s">
+        <v>13</v>
+      </c>
       <c r="G59" s="5"/>
       <c r="H59" s="1"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="12"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
+      <c r="F60" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="G60" s="5"/>
       <c r="H60" s="1"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="12"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
+      <c r="F61" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="G61" s="5"/>
       <c r="H61" s="1"/>
       <c r="I61" s="6"/>

--- a/pishnyij.xlsx
+++ b/pishnyij.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>отзывы с фейсбука</t>
   </si>
@@ -38,42 +38,6 @@
     <t>все</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=FDmgktMrRZE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t5AGdtx9yD8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-6O_kqMmKhw</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0cK6v_R_SSY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y7QYogJPIKY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7ejD0ITMwjo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=eX5EQgxbnv0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RQbMiXYVniQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bQNa3pYVY-c</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HAiuR_o13PI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=arKx_66MBKc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Bx2z5FKCNNA</t>
-  </si>
-  <si>
     <t>https://strana.ua/news/262994-v-zarazhennom-koronavirusom-obshchezhitii-vishnevoho-pribavilos-12-zabolevshikh.html</t>
   </si>
   <si>
@@ -189,6 +153,9 @@
   </si>
   <si>
     <t>сегодня</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1TzVIvQSGPkyfNrkN-0D2cBqOxMjZ1dY28Y68r2gceMA/edit</t>
   </si>
 </sst>
 </file>
@@ -698,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50:F61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,10 +685,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -734,19 +701,19 @@
     </row>
     <row r="2" spans="1:11" ht="205.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="1"/>
@@ -757,13 +724,11 @@
     <row r="3" spans="1:11" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="C3" s="14" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="18" t="s">
-        <v>16</v>
-      </c>
+      <c r="F3" s="18"/>
       <c r="G3" s="5"/>
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
@@ -773,13 +738,11 @@
     <row r="4" spans="1:11" ht="192.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="C4" s="14" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="18" t="s">
-        <v>17</v>
-      </c>
+      <c r="F4" s="18"/>
       <c r="G4" s="5"/>
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
@@ -789,13 +752,11 @@
     <row r="5" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="C5" s="14" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="18" t="s">
-        <v>18</v>
-      </c>
+      <c r="F5" s="18"/>
       <c r="G5" s="5"/>
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
@@ -805,13 +766,11 @@
     <row r="6" spans="1:11" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="C6" s="14" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F6" s="18"/>
       <c r="G6" s="5"/>
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
@@ -821,13 +780,11 @@
     <row r="7" spans="1:11" ht="192.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="C7" s="14" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="18" t="s">
-        <v>9</v>
-      </c>
+      <c r="F7" s="18"/>
       <c r="G7" s="5"/>
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
@@ -837,13 +794,11 @@
     <row r="8" spans="1:11" ht="218.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="C8" s="14" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="18" t="s">
-        <v>10</v>
-      </c>
+      <c r="F8" s="18"/>
       <c r="G8" s="5"/>
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
@@ -853,13 +808,11 @@
     <row r="9" spans="1:11" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="C9" s="14" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="18" t="s">
-        <v>11</v>
-      </c>
+      <c r="F9" s="18"/>
       <c r="G9" s="5"/>
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
@@ -869,13 +822,11 @@
     <row r="10" spans="1:11" ht="218.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="C10" s="14" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="F10" s="18"/>
       <c r="G10" s="5"/>
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
@@ -885,13 +836,11 @@
     <row r="11" spans="1:11" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="C11" s="14" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="18" t="s">
-        <v>20</v>
-      </c>
+      <c r="F11" s="18"/>
       <c r="G11" s="5"/>
       <c r="H11" s="1"/>
       <c r="I11" s="6"/>
@@ -901,13 +850,11 @@
     <row r="12" spans="1:11" ht="218.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="C12" s="16" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="18" t="s">
-        <v>14</v>
-      </c>
+      <c r="F12" s="18"/>
       <c r="G12" s="5"/>
       <c r="H12" s="1"/>
       <c r="I12" s="6"/>
@@ -917,13 +864,11 @@
     <row r="13" spans="1:11" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="C13" s="14" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="18" t="s">
-        <v>15</v>
-      </c>
+      <c r="F13" s="18"/>
       <c r="G13" s="5"/>
       <c r="H13" s="1"/>
       <c r="I13" s="6"/>
@@ -934,13 +879,11 @@
       <c r="A14" s="1"/>
       <c r="B14" s="9"/>
       <c r="C14" s="14" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="18" t="s">
-        <v>21</v>
-      </c>
+      <c r="F14" s="18"/>
       <c r="G14" s="5"/>
       <c r="H14" s="1"/>
       <c r="I14" s="6"/>
@@ -951,13 +894,11 @@
       <c r="A15" s="1"/>
       <c r="B15" s="3"/>
       <c r="C15" s="14" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="18" t="s">
-        <v>22</v>
-      </c>
+      <c r="F15" s="18"/>
       <c r="G15" s="5"/>
       <c r="H15" s="1"/>
       <c r="I15" s="6"/>
@@ -968,13 +909,11 @@
       <c r="A16" s="1"/>
       <c r="B16" s="9"/>
       <c r="C16" s="16" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="18" t="s">
-        <v>13</v>
-      </c>
+      <c r="F16" s="18"/>
       <c r="G16" s="5"/>
       <c r="H16" s="1"/>
       <c r="I16" s="6"/>
@@ -985,13 +924,11 @@
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="14" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="18" t="s">
-        <v>8</v>
-      </c>
+      <c r="F17" s="18"/>
       <c r="G17" s="5"/>
       <c r="H17" s="1"/>
       <c r="I17" s="6"/>
@@ -1002,13 +939,11 @@
       <c r="A18" s="10"/>
       <c r="B18" s="1"/>
       <c r="C18" s="14" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="18" t="s">
-        <v>23</v>
-      </c>
+      <c r="F18" s="18"/>
       <c r="G18" s="5"/>
       <c r="H18" s="1"/>
       <c r="I18" s="6"/>
@@ -1019,13 +954,11 @@
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="14" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="18" t="s">
-        <v>24</v>
-      </c>
+      <c r="F19" s="18"/>
       <c r="G19" s="5"/>
       <c r="H19" s="1"/>
       <c r="I19" s="6"/>
@@ -1036,13 +969,11 @@
       <c r="A20" s="1"/>
       <c r="B20" s="9"/>
       <c r="C20" s="14" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="18" t="s">
-        <v>7</v>
-      </c>
+      <c r="F20" s="18"/>
       <c r="G20" s="5"/>
       <c r="H20" s="1"/>
       <c r="I20" s="6"/>
@@ -1053,13 +984,11 @@
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="14" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="18" t="s">
-        <v>25</v>
-      </c>
+      <c r="F21" s="18"/>
       <c r="G21" s="5"/>
       <c r="H21" s="1"/>
       <c r="I21" s="6"/>
@@ -1070,13 +999,11 @@
       <c r="A22" s="1"/>
       <c r="B22" s="9"/>
       <c r="C22" s="16" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="18" t="s">
-        <v>5</v>
-      </c>
+      <c r="F22" s="18"/>
       <c r="G22" s="5"/>
       <c r="H22" s="1"/>
       <c r="I22" s="6"/>
@@ -1087,13 +1014,11 @@
       <c r="A23" s="1"/>
       <c r="B23" s="9"/>
       <c r="C23" s="14" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="18" t="s">
-        <v>6</v>
-      </c>
+      <c r="F23" s="18"/>
       <c r="G23" s="5"/>
       <c r="H23" s="1"/>
       <c r="I23" s="6"/>
@@ -1104,13 +1029,11 @@
       <c r="A24" s="1"/>
       <c r="B24" s="9"/>
       <c r="C24" s="14" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="19" t="s">
-        <v>26</v>
-      </c>
+      <c r="F24" s="19"/>
       <c r="G24" s="5"/>
       <c r="H24" s="1"/>
       <c r="I24" s="6"/>
@@ -1121,13 +1044,11 @@
       <c r="A25" s="1"/>
       <c r="B25" s="9"/>
       <c r="C25" s="14" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="18" t="s">
-        <v>27</v>
-      </c>
+      <c r="F25" s="18"/>
       <c r="G25" s="5"/>
       <c r="H25" s="1"/>
       <c r="I25" s="6"/>
@@ -1138,13 +1059,11 @@
       <c r="A26" s="1"/>
       <c r="B26" s="9"/>
       <c r="C26" s="14" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="18" t="s">
-        <v>28</v>
-      </c>
+      <c r="F26" s="18"/>
       <c r="G26" s="5"/>
       <c r="H26" s="1"/>
       <c r="I26" s="6"/>
@@ -1155,13 +1074,11 @@
       <c r="A27" s="1"/>
       <c r="B27" s="9"/>
       <c r="C27" s="14" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="18" t="s">
-        <v>29</v>
-      </c>
+      <c r="F27" s="18"/>
       <c r="G27" s="5"/>
       <c r="H27" s="1"/>
       <c r="I27" s="6"/>
@@ -1172,13 +1089,11 @@
       <c r="A28" s="1"/>
       <c r="B28" s="9"/>
       <c r="C28" s="14" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="19" t="s">
-        <v>30</v>
-      </c>
+      <c r="F28" s="19"/>
       <c r="G28" s="5"/>
       <c r="H28" s="1"/>
       <c r="I28" s="6"/>
@@ -1189,13 +1104,11 @@
       <c r="A29" s="1"/>
       <c r="B29" s="3"/>
       <c r="C29" s="14" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="18" t="s">
-        <v>31</v>
-      </c>
+      <c r="F29" s="18"/>
       <c r="G29" s="5"/>
       <c r="H29" s="1"/>
       <c r="I29" s="6"/>
@@ -1206,13 +1119,11 @@
       <c r="A30" s="1"/>
       <c r="B30" s="3"/>
       <c r="C30" s="14" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="18" t="s">
-        <v>32</v>
-      </c>
+      <c r="F30" s="18"/>
       <c r="G30" s="5"/>
       <c r="H30" s="1"/>
       <c r="I30" s="6"/>
@@ -1223,13 +1134,11 @@
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="14" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="18" t="s">
-        <v>33</v>
-      </c>
+      <c r="F31" s="18"/>
       <c r="G31" s="5"/>
       <c r="H31" s="1"/>
       <c r="I31" s="6"/>
@@ -1240,13 +1149,11 @@
       <c r="A32" s="1"/>
       <c r="B32" s="9"/>
       <c r="C32" s="14" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="18" t="s">
-        <v>34</v>
-      </c>
+      <c r="F32" s="18"/>
       <c r="G32" s="5"/>
       <c r="H32" s="1"/>
       <c r="I32" s="6"/>
@@ -1257,13 +1164,11 @@
       <c r="A33" s="1"/>
       <c r="B33" s="3"/>
       <c r="C33" s="16" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="18" t="s">
-        <v>35</v>
-      </c>
+      <c r="F33" s="18"/>
       <c r="G33" s="5"/>
       <c r="H33" s="1"/>
       <c r="I33" s="6"/>
@@ -1274,13 +1179,11 @@
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="14" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="19" t="s">
-        <v>36</v>
-      </c>
+      <c r="F34" s="19"/>
       <c r="G34" s="5"/>
       <c r="H34" s="1"/>
       <c r="I34" s="6"/>
@@ -1291,13 +1194,11 @@
       <c r="A35" s="10"/>
       <c r="B35" s="1"/>
       <c r="C35" s="14" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="18" t="s">
-        <v>37</v>
-      </c>
+      <c r="F35" s="18"/>
       <c r="G35" s="5"/>
       <c r="H35" s="1"/>
       <c r="I35" s="6"/>
@@ -1308,13 +1209,11 @@
       <c r="A36" s="1"/>
       <c r="B36" s="3"/>
       <c r="C36" s="14" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="18" t="s">
-        <v>38</v>
-      </c>
+      <c r="F36" s="18"/>
       <c r="G36" s="5"/>
       <c r="H36" s="1"/>
       <c r="I36" s="6"/>
@@ -1325,13 +1224,11 @@
       <c r="A37" s="1"/>
       <c r="B37" s="3"/>
       <c r="C37" s="16" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="18" t="s">
-        <v>39</v>
-      </c>
+      <c r="F37" s="18"/>
       <c r="G37" s="5"/>
       <c r="H37" s="1"/>
       <c r="I37" s="6"/>
@@ -1344,9 +1241,7 @@
       <c r="C38" s="2"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="18" t="s">
-        <v>40</v>
-      </c>
+      <c r="F38" s="18"/>
       <c r="G38" s="5"/>
       <c r="H38" s="1"/>
       <c r="I38" s="6"/>
@@ -1359,9 +1254,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="18" t="s">
-        <v>41</v>
-      </c>
+      <c r="F39" s="18"/>
       <c r="G39" s="5"/>
       <c r="H39" s="1"/>
       <c r="I39" s="6"/>
@@ -1374,9 +1267,7 @@
       <c r="C40" s="2"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="18" t="s">
-        <v>42</v>
-      </c>
+      <c r="F40" s="18"/>
       <c r="G40" s="5"/>
       <c r="H40" s="1"/>
       <c r="I40" s="6"/>
@@ -1389,9 +1280,7 @@
       <c r="C41" s="11"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="18" t="s">
-        <v>43</v>
-      </c>
+      <c r="F41" s="18"/>
       <c r="G41" s="5"/>
       <c r="H41" s="1"/>
       <c r="I41" s="6"/>
@@ -1404,9 +1293,7 @@
       <c r="C42" s="12"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="18" t="s">
-        <v>44</v>
-      </c>
+      <c r="F42" s="18"/>
       <c r="G42" s="5"/>
       <c r="H42" s="1"/>
       <c r="I42" s="6"/>
@@ -1419,9 +1306,7 @@
       <c r="C43" s="2"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="18" t="s">
-        <v>45</v>
-      </c>
+      <c r="F43" s="18"/>
       <c r="G43" s="5"/>
       <c r="H43" s="1"/>
       <c r="I43" s="6"/>
@@ -1434,9 +1319,7 @@
       <c r="C44" s="11"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="18" t="s">
-        <v>46</v>
-      </c>
+      <c r="F44" s="18"/>
       <c r="G44" s="5"/>
       <c r="H44" s="1"/>
       <c r="I44" s="6"/>
@@ -1449,9 +1332,7 @@
       <c r="C45" s="12"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="19" t="s">
-        <v>47</v>
-      </c>
+      <c r="F45" s="19"/>
       <c r="G45" s="5"/>
       <c r="H45" s="1"/>
       <c r="I45" s="6"/>
@@ -1464,9 +1345,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="18" t="s">
-        <v>48</v>
-      </c>
+      <c r="F46" s="18"/>
       <c r="G46" s="5"/>
       <c r="H46" s="1"/>
       <c r="I46" s="6"/>
@@ -1479,9 +1358,7 @@
       <c r="C47" s="2"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="18" t="s">
-        <v>49</v>
-      </c>
+      <c r="F47" s="18"/>
       <c r="G47" s="5"/>
       <c r="H47" s="1"/>
       <c r="I47" s="6"/>
@@ -1494,9 +1371,7 @@
       <c r="C48" s="2"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="18" t="s">
-        <v>50</v>
-      </c>
+      <c r="F48" s="18"/>
       <c r="G48" s="5"/>
       <c r="H48" s="1"/>
       <c r="I48" s="6"/>
@@ -1509,189 +1384,163 @@
       <c r="C49" s="11"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="19" t="s">
-        <v>51</v>
-      </c>
+      <c r="F49" s="19"/>
       <c r="G49" s="5"/>
       <c r="H49" s="1"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="12"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="13" t="s">
-        <v>4</v>
-      </c>
+      <c r="F50" s="13"/>
       <c r="G50" s="5"/>
       <c r="H50" s="1"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="12"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="F51" s="14"/>
       <c r="G51" s="5"/>
       <c r="H51" s="1"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="12"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="14" t="s">
-        <v>6</v>
-      </c>
+      <c r="F52" s="14"/>
       <c r="G52" s="5"/>
       <c r="H52" s="1"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="12"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="14" t="s">
-        <v>7</v>
-      </c>
+      <c r="F53" s="14"/>
       <c r="G53" s="5"/>
       <c r="H53" s="1"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="12"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="F54" s="14"/>
       <c r="G54" s="5"/>
       <c r="H54" s="1"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
       <c r="B55" s="1"/>
       <c r="C55" s="11"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="14" t="s">
-        <v>9</v>
-      </c>
+      <c r="F55" s="14"/>
       <c r="G55" s="5"/>
       <c r="H55" s="1"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="9"/>
       <c r="C56" s="12"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="14" t="s">
-        <v>10</v>
-      </c>
+      <c r="F56" s="14"/>
       <c r="G56" s="5"/>
       <c r="H56" s="1"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="12"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="14" t="s">
-        <v>11</v>
-      </c>
+      <c r="F57" s="14"/>
       <c r="G57" s="5"/>
       <c r="H57" s="1"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="12"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="F58" s="14"/>
       <c r="G58" s="5"/>
       <c r="H58" s="1"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="12"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="14" t="s">
-        <v>13</v>
-      </c>
+      <c r="F59" s="14"/>
       <c r="G59" s="5"/>
       <c r="H59" s="1"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="12"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="14" t="s">
-        <v>14</v>
-      </c>
+      <c r="F60" s="14"/>
       <c r="G60" s="5"/>
       <c r="H60" s="1"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="12"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="F61" s="15"/>
       <c r="G61" s="5"/>
       <c r="H61" s="1"/>
       <c r="I61" s="6"/>
